--- a/src/ExcelsiorAspose.Tests/FormatGuessingTests.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/FormatGuessingTests.Test.verified.xlsx
@@ -1,26 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$4</definedName>
+  </definedNames>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Bool</t>
+  </si>
+  <si>
+    <t>12/13/20</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -28,82 +60,267 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="3" builtinId="7"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -244,19 +461,79 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="8.71428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="14" customHeight="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="14" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C4"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>